--- a/英语培训机构对比.xlsx
+++ b/英语培训机构对比.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAB0028-63D2-4C62-99D5-8400C3B9AD49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17766A4E-113A-4EE4-8986-1C78427002E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,11 +138,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没脸英语…..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是8月2日在电话上沟通的。两种套餐都保证能达到8M，否则可以继续学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没脸英语…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6699一年，438节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英孚教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999/2年，312小班45分钟一节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8780，166(中教课)+27(一对一)+附送80欧美大班，共273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年8月5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确实是中式发音也会指正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -551,6 +583,9 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G2" s="3">
         <v>43680.875</v>
       </c>
@@ -593,7 +628,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
@@ -616,7 +651,32 @@
         <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
